--- a/data/pca/factorExposure/factorExposure_2015-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02048346077625314</v>
+        <v>0.01548375622034062</v>
       </c>
       <c r="C2">
-        <v>0.02903559915195987</v>
+        <v>0.04624677309059883</v>
       </c>
       <c r="D2">
-        <v>-0.1326783421988985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1398272828018282</v>
+      </c>
+      <c r="E2">
+        <v>-0.004188048032784717</v>
+      </c>
+      <c r="F2">
+        <v>-0.001086086957867609</v>
+      </c>
+      <c r="G2">
+        <v>-0.11227138031885</v>
+      </c>
+      <c r="H2">
+        <v>0.03944617428972036</v>
+      </c>
+      <c r="I2">
+        <v>0.06435977560724647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.02459458754857999</v>
+        <v>-0.02262519304348892</v>
       </c>
       <c r="C3">
-        <v>0.03995781863926046</v>
+        <v>0.02058281621703769</v>
       </c>
       <c r="D3">
-        <v>-0.01783012530505642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0215015794092031</v>
+      </c>
+      <c r="E3">
+        <v>-0.03899092253938786</v>
+      </c>
+      <c r="F3">
+        <v>-0.01287386337966718</v>
+      </c>
+      <c r="G3">
+        <v>-0.08843778271540981</v>
+      </c>
+      <c r="H3">
+        <v>0.01040843919083637</v>
+      </c>
+      <c r="I3">
+        <v>-0.06261689387357908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03528708076684692</v>
+        <v>0.02664437150984369</v>
       </c>
       <c r="C4">
-        <v>0.06942904585883339</v>
+        <v>0.08881464648506164</v>
       </c>
       <c r="D4">
-        <v>-0.1399224849940963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1521903481451013</v>
+      </c>
+      <c r="E4">
+        <v>-0.01961367589569001</v>
+      </c>
+      <c r="F4">
+        <v>-0.08318644617828154</v>
+      </c>
+      <c r="G4">
+        <v>0.005515396729630783</v>
+      </c>
+      <c r="H4">
+        <v>0.0447582268841225</v>
+      </c>
+      <c r="I4">
+        <v>0.01421374617505708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02578825403607697</v>
+        <v>0.026879391295414</v>
       </c>
       <c r="C6">
-        <v>0.01436824293036118</v>
+        <v>0.02936989114173749</v>
       </c>
       <c r="D6">
-        <v>-0.1488937141883029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1291067722085304</v>
+      </c>
+      <c r="E6">
+        <v>0.03487684756328199</v>
+      </c>
+      <c r="F6">
+        <v>-0.05175543050990083</v>
+      </c>
+      <c r="G6">
+        <v>-0.0437874430446058</v>
+      </c>
+      <c r="H6">
+        <v>0.02551778517317091</v>
+      </c>
+      <c r="I6">
+        <v>-0.02454996634778593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.008147267493435811</v>
+        <v>0.007177943585561145</v>
       </c>
       <c r="C7">
-        <v>0.02575644333777568</v>
+        <v>0.0339634652362853</v>
       </c>
       <c r="D7">
-        <v>-0.1193679069596748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.1006623611908097</v>
+      </c>
+      <c r="E7">
+        <v>0.043386125978156</v>
+      </c>
+      <c r="F7">
+        <v>-0.00922894490828054</v>
+      </c>
+      <c r="G7">
+        <v>-0.03317969636965621</v>
+      </c>
+      <c r="H7">
+        <v>0.06141319052078086</v>
+      </c>
+      <c r="I7">
+        <v>-0.04574237831224104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003273087211325971</v>
+        <v>-0.003659760025196363</v>
       </c>
       <c r="C8">
-        <v>0.03237024144651546</v>
+        <v>0.03896479984073508</v>
       </c>
       <c r="D8">
-        <v>-0.08395600684804447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08170666884136132</v>
+      </c>
+      <c r="E8">
+        <v>0.01206310308667932</v>
+      </c>
+      <c r="F8">
+        <v>-0.04736284978931095</v>
+      </c>
+      <c r="G8">
+        <v>-0.09290147461103256</v>
+      </c>
+      <c r="H8">
+        <v>-0.01020454992724583</v>
+      </c>
+      <c r="I8">
+        <v>-0.0367449596333338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03000778761448673</v>
+        <v>0.0204974425099653</v>
       </c>
       <c r="C9">
-        <v>0.06460008918749641</v>
+        <v>0.07869968337213316</v>
       </c>
       <c r="D9">
-        <v>-0.1323956483724627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1274303325907048</v>
+      </c>
+      <c r="E9">
+        <v>-0.01069283496099942</v>
+      </c>
+      <c r="F9">
+        <v>-0.04974989923769697</v>
+      </c>
+      <c r="G9">
+        <v>0.003533734118594101</v>
+      </c>
+      <c r="H9">
+        <v>0.04902908282855482</v>
+      </c>
+      <c r="I9">
+        <v>0.00145915549094599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1562584479643881</v>
+        <v>0.2110052867881896</v>
       </c>
       <c r="C10">
-        <v>-0.1650538997527031</v>
+        <v>-0.1246002199091784</v>
       </c>
       <c r="D10">
-        <v>-0.02166311274725275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009999939908693882</v>
+      </c>
+      <c r="E10">
+        <v>-0.02816264212946625</v>
+      </c>
+      <c r="F10">
+        <v>-0.04914716800228454</v>
+      </c>
+      <c r="G10">
+        <v>0.008569268735040271</v>
+      </c>
+      <c r="H10">
+        <v>-0.0578115960729654</v>
+      </c>
+      <c r="I10">
+        <v>-0.120104408915305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02241947151039701</v>
+        <v>0.01401904648751611</v>
       </c>
       <c r="C11">
-        <v>0.04377639764866787</v>
+        <v>0.05259251882824737</v>
       </c>
       <c r="D11">
-        <v>-0.05593652544817197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04935852585994577</v>
+      </c>
+      <c r="E11">
+        <v>0.01900920099520038</v>
+      </c>
+      <c r="F11">
+        <v>0.01345995789889123</v>
+      </c>
+      <c r="G11">
+        <v>-0.01064041988232138</v>
+      </c>
+      <c r="H11">
+        <v>0.04434706528576269</v>
+      </c>
+      <c r="I11">
+        <v>0.007555689674215176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02379358356425292</v>
+        <v>0.01478397389339718</v>
       </c>
       <c r="C12">
-        <v>0.04226606257415737</v>
+        <v>0.04886023209914645</v>
       </c>
       <c r="D12">
-        <v>-0.06893742582790879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05211162928392969</v>
+      </c>
+      <c r="E12">
+        <v>0.01565712404156436</v>
+      </c>
+      <c r="F12">
+        <v>0.01552360287409096</v>
+      </c>
+      <c r="G12">
+        <v>-0.006861869034422634</v>
+      </c>
+      <c r="H12">
+        <v>0.07278662013085054</v>
+      </c>
+      <c r="I12">
+        <v>-0.001453585444000272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0005808888961414093</v>
+        <v>0.003989722996983695</v>
       </c>
       <c r="C13">
-        <v>0.02768818661059852</v>
+        <v>0.04168335187690675</v>
       </c>
       <c r="D13">
-        <v>-0.1532881853441312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1578791952836554</v>
+      </c>
+      <c r="E13">
+        <v>0.03883463310762095</v>
+      </c>
+      <c r="F13">
+        <v>-0.04231611162247979</v>
+      </c>
+      <c r="G13">
+        <v>-0.05823468701930443</v>
+      </c>
+      <c r="H13">
+        <v>0.05421240098162998</v>
+      </c>
+      <c r="I13">
+        <v>-0.06267012737882431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.00293314139470074</v>
+        <v>3.252352614726299e-05</v>
       </c>
       <c r="C14">
-        <v>0.02249068658313875</v>
+        <v>0.02769068415966465</v>
       </c>
       <c r="D14">
-        <v>-0.1087185335387105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1049293850773602</v>
+      </c>
+      <c r="E14">
+        <v>0.01806221901594228</v>
+      </c>
+      <c r="F14">
+        <v>-0.01918338474733293</v>
+      </c>
+      <c r="G14">
+        <v>-0.06640944401700696</v>
+      </c>
+      <c r="H14">
+        <v>0.09843618580792933</v>
+      </c>
+      <c r="I14">
+        <v>-0.01121499669797678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002930301453276106</v>
+        <v>0.0001639609649739932</v>
       </c>
       <c r="C15">
-        <v>0.01116007648519942</v>
+        <v>0.01659355229256174</v>
       </c>
       <c r="D15">
-        <v>-0.02402637102029687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04859162832165329</v>
+      </c>
+      <c r="E15">
+        <v>0.004259435742073589</v>
+      </c>
+      <c r="F15">
+        <v>-0.002293976635517087</v>
+      </c>
+      <c r="G15">
+        <v>-0.02297219217588962</v>
+      </c>
+      <c r="H15">
+        <v>0.01149200852996288</v>
+      </c>
+      <c r="I15">
+        <v>0.0207380511106406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02040324165108166</v>
+        <v>0.01382555903270378</v>
       </c>
       <c r="C16">
-        <v>0.03999730702778311</v>
+        <v>0.04705344998624519</v>
       </c>
       <c r="D16">
-        <v>-0.06410301188859416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05048853412514839</v>
+      </c>
+      <c r="E16">
+        <v>0.01940348658338933</v>
+      </c>
+      <c r="F16">
+        <v>0.007067768049086445</v>
+      </c>
+      <c r="G16">
+        <v>-0.003423097895487281</v>
+      </c>
+      <c r="H16">
+        <v>0.05193825336325809</v>
+      </c>
+      <c r="I16">
+        <v>0.006612040318942128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0006373672417357605</v>
+        <v>-0.001762392262301325</v>
       </c>
       <c r="C19">
-        <v>0.0238944308427222</v>
+        <v>0.01964880188730155</v>
       </c>
       <c r="D19">
-        <v>-0.1405109772121751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09393896738523447</v>
+      </c>
+      <c r="E19">
+        <v>-0.02278929145640546</v>
+      </c>
+      <c r="F19">
+        <v>-0.00932526885516871</v>
+      </c>
+      <c r="G19">
+        <v>-0.03683429475213088</v>
+      </c>
+      <c r="H19">
+        <v>0.06461464969149072</v>
+      </c>
+      <c r="I19">
+        <v>-0.03411261206385034</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002443906357688263</v>
+        <v>0.003978196678314714</v>
       </c>
       <c r="C20">
-        <v>0.03209610189685286</v>
+        <v>0.03923778432788916</v>
       </c>
       <c r="D20">
-        <v>-0.09525346717984022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1032900213659937</v>
+      </c>
+      <c r="E20">
+        <v>-0.002674392526630553</v>
+      </c>
+      <c r="F20">
+        <v>-0.03095250593373882</v>
+      </c>
+      <c r="G20">
+        <v>-0.03904480447916631</v>
+      </c>
+      <c r="H20">
+        <v>0.05849834675936243</v>
+      </c>
+      <c r="I20">
+        <v>-0.02372369748551825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.002345187811596184</v>
+        <v>0.0001413096766325675</v>
       </c>
       <c r="C21">
-        <v>0.03603041646830817</v>
+        <v>0.04265452419035246</v>
       </c>
       <c r="D21">
-        <v>-0.1729793496130576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1474288873686082</v>
+      </c>
+      <c r="E21">
+        <v>-0.01701799538694638</v>
+      </c>
+      <c r="F21">
+        <v>-0.06199094728991857</v>
+      </c>
+      <c r="G21">
+        <v>-0.07496812138725351</v>
+      </c>
+      <c r="H21">
+        <v>0.1456728358780051</v>
+      </c>
+      <c r="I21">
+        <v>-0.07745520679893636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002470085772794675</v>
+        <v>-0.003050200901782344</v>
       </c>
       <c r="C22">
-        <v>0.05605143192824778</v>
+        <v>0.06888666652228675</v>
       </c>
       <c r="D22">
-        <v>-0.1918558674791939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.236920889626953</v>
+      </c>
+      <c r="E22">
+        <v>0.04610423409117465</v>
+      </c>
+      <c r="F22">
+        <v>-0.02849200409783782</v>
+      </c>
+      <c r="G22">
+        <v>-0.1618830034553611</v>
+      </c>
+      <c r="H22">
+        <v>-0.473434743025569</v>
+      </c>
+      <c r="I22">
+        <v>0.2044615202346751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002278784002086949</v>
+        <v>-0.002619452258010381</v>
       </c>
       <c r="C23">
-        <v>0.05648741735332783</v>
+        <v>0.06978809891381718</v>
       </c>
       <c r="D23">
-        <v>-0.1914055721664949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2376481723647336</v>
+      </c>
+      <c r="E23">
+        <v>0.0432184941608728</v>
+      </c>
+      <c r="F23">
+        <v>-0.02751761932015176</v>
+      </c>
+      <c r="G23">
+        <v>-0.1604792611990825</v>
+      </c>
+      <c r="H23">
+        <v>-0.4734626879221546</v>
+      </c>
+      <c r="I23">
+        <v>0.2060502957536781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02716066701162309</v>
+        <v>0.01571356582250477</v>
       </c>
       <c r="C24">
-        <v>0.05831077052098634</v>
+        <v>0.0639684803047665</v>
       </c>
       <c r="D24">
-        <v>-0.07498056643773762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05942498862321012</v>
+      </c>
+      <c r="E24">
+        <v>0.02074087929782713</v>
+      </c>
+      <c r="F24">
+        <v>0.005597153685002106</v>
+      </c>
+      <c r="G24">
+        <v>-0.01648733390074769</v>
+      </c>
+      <c r="H24">
+        <v>0.07604825881337281</v>
+      </c>
+      <c r="I24">
+        <v>0.007308617047959941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03039585866723397</v>
+        <v>0.01933580401571553</v>
       </c>
       <c r="C25">
-        <v>0.04979144827168989</v>
+        <v>0.05949398561696741</v>
       </c>
       <c r="D25">
-        <v>-0.06991162786714371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05831757231327128</v>
+      </c>
+      <c r="E25">
+        <v>0.008128982977250693</v>
+      </c>
+      <c r="F25">
+        <v>0.0080210101358997</v>
+      </c>
+      <c r="G25">
+        <v>-0.004951400062010179</v>
+      </c>
+      <c r="H25">
+        <v>0.04673137597133886</v>
+      </c>
+      <c r="I25">
+        <v>0.001844659576988909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.003929112898724818</v>
+        <v>0.005630870423855938</v>
       </c>
       <c r="C26">
-        <v>0.0160481349787652</v>
+        <v>0.02318669131090855</v>
       </c>
       <c r="D26">
-        <v>-0.07796023541636814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07371352809734069</v>
+      </c>
+      <c r="E26">
+        <v>0.01869724556480253</v>
+      </c>
+      <c r="F26">
+        <v>-0.02425602345802787</v>
+      </c>
+      <c r="G26">
+        <v>-0.03682321341342023</v>
+      </c>
+      <c r="H26">
+        <v>0.0670694929834197</v>
+      </c>
+      <c r="I26">
+        <v>-0.04095332796378334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2390069395219254</v>
+        <v>0.3060402223251585</v>
       </c>
       <c r="C28">
-        <v>-0.2115555675019807</v>
+        <v>-0.1459821941608888</v>
       </c>
       <c r="D28">
-        <v>-0.02003859736398357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.003346498916347238</v>
+      </c>
+      <c r="E28">
+        <v>-0.05047596656462681</v>
+      </c>
+      <c r="F28">
+        <v>-0.03925003881593909</v>
+      </c>
+      <c r="G28">
+        <v>0.02188298128363459</v>
+      </c>
+      <c r="H28">
+        <v>-0.02585687200687414</v>
+      </c>
+      <c r="I28">
+        <v>-0.08998950906511242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002553247025376632</v>
+        <v>0.0004664262730038407</v>
       </c>
       <c r="C29">
-        <v>0.02095739757480721</v>
+        <v>0.02745217664653279</v>
       </c>
       <c r="D29">
-        <v>-0.1010704777941737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1017846696892903</v>
+      </c>
+      <c r="E29">
+        <v>0.03207284943407471</v>
+      </c>
+      <c r="F29">
+        <v>-0.02883101512747852</v>
+      </c>
+      <c r="G29">
+        <v>-0.05213462421276513</v>
+      </c>
+      <c r="H29">
+        <v>0.09697609892619162</v>
+      </c>
+      <c r="I29">
+        <v>-0.01877031808338961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01706966920373133</v>
+        <v>0.01710078790034816</v>
       </c>
       <c r="C30">
-        <v>0.05938019626050158</v>
+        <v>0.07660251767687422</v>
       </c>
       <c r="D30">
-        <v>-0.168927938322673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1699107234400148</v>
+      </c>
+      <c r="E30">
+        <v>0.03580305963821405</v>
+      </c>
+      <c r="F30">
+        <v>-0.0373333982073345</v>
+      </c>
+      <c r="G30">
+        <v>-0.03892308538818542</v>
+      </c>
+      <c r="H30">
+        <v>0.0362357510195945</v>
+      </c>
+      <c r="I30">
+        <v>0.04677772374199173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04009630646927909</v>
+        <v>0.01788839510972185</v>
       </c>
       <c r="C31">
-        <v>0.08446031097053397</v>
+        <v>0.08823288764371957</v>
       </c>
       <c r="D31">
-        <v>-0.08061400686456566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04682761893577422</v>
+      </c>
+      <c r="E31">
+        <v>0.007600971680162104</v>
+      </c>
+      <c r="F31">
+        <v>-0.01804594545820032</v>
+      </c>
+      <c r="G31">
+        <v>-0.02491197991108412</v>
+      </c>
+      <c r="H31">
+        <v>0.03988456457739666</v>
+      </c>
+      <c r="I31">
+        <v>-0.05363471416052257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02180323508894731</v>
+        <v>0.01735772321802414</v>
       </c>
       <c r="C32">
-        <v>0.03147158148211634</v>
+        <v>0.03784431609976548</v>
       </c>
       <c r="D32">
-        <v>-0.1114511255574296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1156265968530353</v>
+      </c>
+      <c r="E32">
+        <v>0.001744969055803149</v>
+      </c>
+      <c r="F32">
+        <v>-0.04338314554388897</v>
+      </c>
+      <c r="G32">
+        <v>-0.02564367918039406</v>
+      </c>
+      <c r="H32">
+        <v>0.01643290527073323</v>
+      </c>
+      <c r="I32">
+        <v>-0.07551423349001934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01378581585685174</v>
+        <v>0.01147019736128942</v>
       </c>
       <c r="C33">
-        <v>0.04182806828314782</v>
+        <v>0.0531917487484149</v>
       </c>
       <c r="D33">
-        <v>-0.1531226789606439</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1334995350452935</v>
+      </c>
+      <c r="E33">
+        <v>0.01240632767494862</v>
+      </c>
+      <c r="F33">
+        <v>-0.02384575054635349</v>
+      </c>
+      <c r="G33">
+        <v>-0.02946752656962364</v>
+      </c>
+      <c r="H33">
+        <v>0.05643979821591489</v>
+      </c>
+      <c r="I33">
+        <v>-0.009489970939770444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02637649072425219</v>
+        <v>0.01375998417410868</v>
       </c>
       <c r="C34">
-        <v>0.0585326147317082</v>
+        <v>0.06260607078399724</v>
       </c>
       <c r="D34">
-        <v>-0.05493596505022785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03759399665264695</v>
+      </c>
+      <c r="E34">
+        <v>0.02883907348670177</v>
+      </c>
+      <c r="F34">
+        <v>0.03620385902981046</v>
+      </c>
+      <c r="G34">
+        <v>-0.01333927527816067</v>
+      </c>
+      <c r="H34">
+        <v>0.05762320121247549</v>
+      </c>
+      <c r="I34">
+        <v>-0.008923372509250125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001531400375781599</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003660658894153164</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01445169328415012</v>
+      </c>
+      <c r="E35">
+        <v>0.001678037361683858</v>
+      </c>
+      <c r="F35">
+        <v>0.001379742294197925</v>
+      </c>
+      <c r="G35">
+        <v>-0.00078375494135595</v>
+      </c>
+      <c r="H35">
+        <v>0.00698855345741972</v>
+      </c>
+      <c r="I35">
+        <v>0.003706135604807126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01003360623904344</v>
+        <v>0.01216659814758389</v>
       </c>
       <c r="C36">
-        <v>0.004502784821482884</v>
+        <v>0.01710439345964291</v>
       </c>
       <c r="D36">
-        <v>-0.09935421447159433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08800638002807294</v>
+      </c>
+      <c r="E36">
+        <v>0.005162672490162581</v>
+      </c>
+      <c r="F36">
+        <v>-0.03280557756130865</v>
+      </c>
+      <c r="G36">
+        <v>-0.02375322179945599</v>
+      </c>
+      <c r="H36">
+        <v>0.0570079775507517</v>
+      </c>
+      <c r="I36">
+        <v>-0.0195051664938969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009458391178171634</v>
+        <v>0.01759459483386228</v>
       </c>
       <c r="C38">
-        <v>0.01074996585880485</v>
+        <v>0.01666654995490183</v>
       </c>
       <c r="D38">
-        <v>-0.08726098302660121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08655730171243176</v>
+      </c>
+      <c r="E38">
+        <v>-0.01314467954933464</v>
+      </c>
+      <c r="F38">
+        <v>0.01244130638753197</v>
+      </c>
+      <c r="G38">
+        <v>-0.03840069000643472</v>
+      </c>
+      <c r="H38">
+        <v>0.04312998722226766</v>
+      </c>
+      <c r="I38">
+        <v>-0.01312208220185764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02432656640501241</v>
+        <v>0.01468332203142828</v>
       </c>
       <c r="C39">
-        <v>0.05622713675987332</v>
+        <v>0.07349878423748914</v>
       </c>
       <c r="D39">
-        <v>-0.1058467431287104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1027993576261362</v>
+      </c>
+      <c r="E39">
+        <v>0.04563488445387342</v>
+      </c>
+      <c r="F39">
+        <v>0.01344968754606172</v>
+      </c>
+      <c r="G39">
+        <v>-0.01860396687728848</v>
+      </c>
+      <c r="H39">
+        <v>0.09378165270462845</v>
+      </c>
+      <c r="I39">
+        <v>0.05416529999044012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0112247443438799</v>
+        <v>0.007174534060439905</v>
       </c>
       <c r="C40">
-        <v>0.04051934933546086</v>
+        <v>0.03976387357085959</v>
       </c>
       <c r="D40">
-        <v>-0.1181621059419235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1007146880646212</v>
+      </c>
+      <c r="E40">
+        <v>0.01675422028886847</v>
+      </c>
+      <c r="F40">
+        <v>-0.02204682897123304</v>
+      </c>
+      <c r="G40">
+        <v>-0.2468837500310508</v>
+      </c>
+      <c r="H40">
+        <v>0.01849711704970248</v>
+      </c>
+      <c r="I40">
+        <v>-0.1438999478845635</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.0181972990001481</v>
+        <v>0.01695603845879487</v>
       </c>
       <c r="C41">
-        <v>0.004726769135472052</v>
+        <v>0.01385277687027378</v>
       </c>
       <c r="D41">
-        <v>-0.07663523606287091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05206548597279774</v>
+      </c>
+      <c r="E41">
+        <v>-0.01691796800615511</v>
+      </c>
+      <c r="F41">
+        <v>-0.01365209943672522</v>
+      </c>
+      <c r="G41">
+        <v>-0.02613575416999737</v>
+      </c>
+      <c r="H41">
+        <v>0.02703962006772864</v>
+      </c>
+      <c r="I41">
+        <v>-0.04213915192044058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01222789316821747</v>
+        <v>0.01061934727839224</v>
       </c>
       <c r="C43">
-        <v>0.009034528194195498</v>
+        <v>0.0160732217638925</v>
       </c>
       <c r="D43">
-        <v>-0.09080911360496575</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06504954556836802</v>
+      </c>
+      <c r="E43">
+        <v>-0.004427621505548499</v>
+      </c>
+      <c r="F43">
+        <v>-0.009687529832346648</v>
+      </c>
+      <c r="G43">
+        <v>-0.03224414957810969</v>
+      </c>
+      <c r="H43">
+        <v>0.05719020814582073</v>
+      </c>
+      <c r="I43">
+        <v>-0.03906330955636411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.001066628129929302</v>
+        <v>0.005128208287163607</v>
       </c>
       <c r="C44">
-        <v>0.0393698201620253</v>
+        <v>0.04330989797466556</v>
       </c>
       <c r="D44">
-        <v>-0.1000540123201997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1140163717539926</v>
+      </c>
+      <c r="E44">
+        <v>0.0008349279882054688</v>
+      </c>
+      <c r="F44">
+        <v>-0.02411321499951323</v>
+      </c>
+      <c r="G44">
+        <v>-0.03892732778471758</v>
+      </c>
+      <c r="H44">
+        <v>0.0451439741484637</v>
+      </c>
+      <c r="I44">
+        <v>0.03345106625864152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007729465365610261</v>
+        <v>0.002301460925442835</v>
       </c>
       <c r="C46">
-        <v>0.0283143118136832</v>
+        <v>0.0356807376399225</v>
       </c>
       <c r="D46">
-        <v>-0.1077415675501195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09049918623566489</v>
+      </c>
+      <c r="E46">
+        <v>0.016590956271457</v>
+      </c>
+      <c r="F46">
+        <v>-0.02244945308249596</v>
+      </c>
+      <c r="G46">
+        <v>-0.05022165616574484</v>
+      </c>
+      <c r="H46">
+        <v>0.1100074407471816</v>
+      </c>
+      <c r="I46">
+        <v>-0.03239458596830352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07920980253666972</v>
+        <v>0.04607208657982915</v>
       </c>
       <c r="C47">
-        <v>0.1079056361777566</v>
+        <v>0.1196954769365989</v>
       </c>
       <c r="D47">
-        <v>-0.06244896858714785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02743590770414221</v>
+      </c>
+      <c r="E47">
+        <v>-0.008124639504178421</v>
+      </c>
+      <c r="F47">
+        <v>0.006235611699450423</v>
+      </c>
+      <c r="G47">
+        <v>0.02399364736018853</v>
+      </c>
+      <c r="H47">
+        <v>0.04076529887083229</v>
+      </c>
+      <c r="I47">
+        <v>-0.1129722848291493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.004628833329197141</v>
+        <v>0.005759304101232537</v>
       </c>
       <c r="C48">
-        <v>0.01752656174141128</v>
+        <v>0.02621489893403203</v>
       </c>
       <c r="D48">
-        <v>-0.09446948066901335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08851919653065465</v>
+      </c>
+      <c r="E48">
+        <v>-0.01101131087278689</v>
+      </c>
+      <c r="F48">
+        <v>-0.03541694847337624</v>
+      </c>
+      <c r="G48">
+        <v>-0.04102145920510672</v>
+      </c>
+      <c r="H48">
+        <v>0.07257631243904704</v>
+      </c>
+      <c r="I48">
+        <v>-0.01672640539609135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03863177767395774</v>
+        <v>0.01977613248422592</v>
       </c>
       <c r="C50">
-        <v>0.06341896822154297</v>
+        <v>0.07235102880537793</v>
       </c>
       <c r="D50">
-        <v>-0.07941179281784874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05458657902116638</v>
+      </c>
+      <c r="E50">
+        <v>0.000700816124444713</v>
+      </c>
+      <c r="F50">
+        <v>-0.007355761355339578</v>
+      </c>
+      <c r="G50">
+        <v>-0.03727893657035107</v>
+      </c>
+      <c r="H50">
+        <v>0.01976528396544728</v>
+      </c>
+      <c r="I50">
+        <v>-0.09098531917654183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001755452595486926</v>
+        <v>0.003128916563354516</v>
       </c>
       <c r="C51">
-        <v>0.01060284254716011</v>
+        <v>0.01884603874718986</v>
       </c>
       <c r="D51">
-        <v>-0.0689734690368784</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07501705396019845</v>
+      </c>
+      <c r="E51">
+        <v>0.02998471338905965</v>
+      </c>
+      <c r="F51">
+        <v>-0.03407468195805405</v>
+      </c>
+      <c r="G51">
+        <v>-0.04737489659248151</v>
+      </c>
+      <c r="H51">
+        <v>0.04563692681939541</v>
+      </c>
+      <c r="I51">
+        <v>-0.008857200321530281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09930089052325639</v>
+        <v>0.0673309987078754</v>
       </c>
       <c r="C53">
-        <v>0.1252891293157543</v>
+        <v>0.149172173535981</v>
       </c>
       <c r="D53">
-        <v>-0.02173152314603925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.002289095400354537</v>
+      </c>
+      <c r="E53">
+        <v>-0.04377502608937306</v>
+      </c>
+      <c r="F53">
+        <v>-0.06328583061092381</v>
+      </c>
+      <c r="G53">
+        <v>-0.03112340562475876</v>
+      </c>
+      <c r="H53">
+        <v>0.002845725869241924</v>
+      </c>
+      <c r="I53">
+        <v>-0.09626111747642542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01222211595048197</v>
+        <v>0.009882431868791584</v>
       </c>
       <c r="C54">
-        <v>0.02269468074695169</v>
+        <v>0.03459677937187845</v>
       </c>
       <c r="D54">
-        <v>-0.1166231736910152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09473846038302625</v>
+      </c>
+      <c r="E54">
+        <v>0.009186509654251173</v>
+      </c>
+      <c r="F54">
+        <v>-0.0001158207776215152</v>
+      </c>
+      <c r="G54">
+        <v>-0.05717340380763623</v>
+      </c>
+      <c r="H54">
+        <v>0.06784960123736035</v>
+      </c>
+      <c r="I54">
+        <v>-0.05746068392255878</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09106522891786356</v>
+        <v>0.05651052206232043</v>
       </c>
       <c r="C55">
-        <v>0.1045271492728093</v>
+        <v>0.1242315508448777</v>
       </c>
       <c r="D55">
-        <v>-0.007171930464195397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01454935557516909</v>
+      </c>
+      <c r="E55">
+        <v>-0.005131365795577867</v>
+      </c>
+      <c r="F55">
+        <v>-0.02750342919436494</v>
+      </c>
+      <c r="G55">
+        <v>-0.03939875069019614</v>
+      </c>
+      <c r="H55">
+        <v>-0.01059497426842708</v>
+      </c>
+      <c r="I55">
+        <v>-0.07732626211784376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1253316201549181</v>
+        <v>0.07991554307292954</v>
       </c>
       <c r="C56">
-        <v>0.1320735101352571</v>
+        <v>0.17088494830163</v>
       </c>
       <c r="D56">
-        <v>-0.002627553107622468</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01528984963525028</v>
+      </c>
+      <c r="E56">
+        <v>-0.03668033778472617</v>
+      </c>
+      <c r="F56">
+        <v>-0.02578130235511226</v>
+      </c>
+      <c r="G56">
+        <v>-0.04801312997517702</v>
+      </c>
+      <c r="H56">
+        <v>-0.02817521275447691</v>
+      </c>
+      <c r="I56">
+        <v>-0.09102123838464844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02424633221338177</v>
+        <v>-0.007042365058671021</v>
       </c>
       <c r="C58">
-        <v>0.02074568105524213</v>
+        <v>0.04123022139009046</v>
       </c>
       <c r="D58">
-        <v>-0.2138762069183728</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2857077115827847</v>
+      </c>
+      <c r="E58">
+        <v>-0.03793422047680109</v>
+      </c>
+      <c r="F58">
+        <v>-0.09148606301589322</v>
+      </c>
+      <c r="G58">
+        <v>-0.0717491264622548</v>
+      </c>
+      <c r="H58">
+        <v>-0.1515366426242686</v>
+      </c>
+      <c r="I58">
+        <v>0.04946607963812735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1702321875102889</v>
+        <v>0.2284131430273478</v>
       </c>
       <c r="C59">
-        <v>-0.1499072038740471</v>
+        <v>-0.09950453374369156</v>
       </c>
       <c r="D59">
-        <v>-0.05074845086470962</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06442966912731882</v>
+      </c>
+      <c r="E59">
+        <v>-0.0381947477673809</v>
+      </c>
+      <c r="F59">
+        <v>-0.01068359804231939</v>
+      </c>
+      <c r="G59">
+        <v>-0.0007803094675766887</v>
+      </c>
+      <c r="H59">
+        <v>-0.01742023537405873</v>
+      </c>
+      <c r="I59">
+        <v>-0.009269598101226417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2047045961809863</v>
+        <v>0.1688191522463075</v>
       </c>
       <c r="C60">
-        <v>0.1039629082723444</v>
+        <v>0.1627205801831455</v>
       </c>
       <c r="D60">
-        <v>-0.156484919680026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.08127484298675661</v>
+      </c>
+      <c r="E60">
+        <v>0.2591357747302556</v>
+      </c>
+      <c r="F60">
+        <v>0.1547281113051001</v>
+      </c>
+      <c r="G60">
+        <v>0.2477927374250484</v>
+      </c>
+      <c r="H60">
+        <v>-0.1120552502253113</v>
+      </c>
+      <c r="I60">
+        <v>0.0397036760857234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03182022688878798</v>
+        <v>0.01968589542677428</v>
       </c>
       <c r="C61">
-        <v>0.05876187432259932</v>
+        <v>0.07141696486138614</v>
       </c>
       <c r="D61">
-        <v>-0.1178284816005889</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0916050755678732</v>
+      </c>
+      <c r="E61">
+        <v>0.03596673648923513</v>
+      </c>
+      <c r="F61">
+        <v>0.01819961991168639</v>
+      </c>
+      <c r="G61">
+        <v>-0.003927916909405154</v>
+      </c>
+      <c r="H61">
+        <v>0.09779602673295777</v>
+      </c>
+      <c r="I61">
+        <v>-0.01471748545078897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.008985652789671157</v>
+        <v>0.005348639396151126</v>
       </c>
       <c r="C63">
-        <v>0.0250496442739713</v>
+        <v>0.03482014946684683</v>
       </c>
       <c r="D63">
-        <v>-0.09529790278320141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07548015753443993</v>
+      </c>
+      <c r="E63">
+        <v>0.0203424009963537</v>
+      </c>
+      <c r="F63">
+        <v>-0.01980267674859082</v>
+      </c>
+      <c r="G63">
+        <v>-0.03123979849342212</v>
+      </c>
+      <c r="H63">
+        <v>0.05368379094718403</v>
+      </c>
+      <c r="I63">
+        <v>-0.009551720347787972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0518335460484764</v>
+        <v>0.0277224827392294</v>
       </c>
       <c r="C64">
-        <v>0.08460752298840302</v>
+        <v>0.09746036228519971</v>
       </c>
       <c r="D64">
-        <v>-0.06593455571120187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05166906434719146</v>
+      </c>
+      <c r="E64">
+        <v>0.02428891198270722</v>
+      </c>
+      <c r="F64">
+        <v>-0.03379900773672861</v>
+      </c>
+      <c r="G64">
+        <v>0.01931779854364314</v>
+      </c>
+      <c r="H64">
+        <v>0.1231853505178776</v>
+      </c>
+      <c r="I64">
+        <v>-0.00259811763141066</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02364000734112273</v>
+        <v>0.0197375837106161</v>
       </c>
       <c r="C65">
-        <v>0.01775262426764761</v>
+        <v>0.03601764648960665</v>
       </c>
       <c r="D65">
-        <v>-0.1191690024671646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1077723202432179</v>
+      </c>
+      <c r="E65">
+        <v>0.0392259666547858</v>
+      </c>
+      <c r="F65">
+        <v>-0.009654015443329219</v>
+      </c>
+      <c r="G65">
+        <v>-0.01098084697754026</v>
+      </c>
+      <c r="H65">
+        <v>0.01450429700252244</v>
+      </c>
+      <c r="I65">
+        <v>-0.01354617508760883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02519088493144175</v>
+        <v>0.01429197517949889</v>
       </c>
       <c r="C66">
-        <v>0.06423050575883922</v>
+        <v>0.08578193934114665</v>
       </c>
       <c r="D66">
-        <v>-0.1205539584089909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1316106416962702</v>
+      </c>
+      <c r="E66">
+        <v>0.03735526575644579</v>
+      </c>
+      <c r="F66">
+        <v>0.01996285149297702</v>
+      </c>
+      <c r="G66">
+        <v>-0.01253688366940028</v>
+      </c>
+      <c r="H66">
+        <v>0.05552678744099245</v>
+      </c>
+      <c r="I66">
+        <v>0.05618980919215993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03047384567330663</v>
+        <v>0.03039283510856272</v>
       </c>
       <c r="C67">
-        <v>0.0223220835928636</v>
+        <v>0.02965143525890938</v>
       </c>
       <c r="D67">
-        <v>-0.04057160559382296</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03482264336680655</v>
+      </c>
+      <c r="E67">
+        <v>0.002356373095797398</v>
+      </c>
+      <c r="F67">
+        <v>0.03176859960625731</v>
+      </c>
+      <c r="G67">
+        <v>-0.03081036979354075</v>
+      </c>
+      <c r="H67">
+        <v>0.05492752739171326</v>
+      </c>
+      <c r="I67">
+        <v>-0.004959171764459415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2108394694372969</v>
+        <v>0.2600666059964158</v>
       </c>
       <c r="C68">
-        <v>-0.1646114689017534</v>
+        <v>-0.1013406052794256</v>
       </c>
       <c r="D68">
-        <v>-0.03283390511413107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03330937684037202</v>
+      </c>
+      <c r="E68">
+        <v>-0.00363664396095822</v>
+      </c>
+      <c r="F68">
+        <v>-0.02661924847870358</v>
+      </c>
+      <c r="G68">
+        <v>-0.04668933905065511</v>
+      </c>
+      <c r="H68">
+        <v>-0.04731504707512146</v>
+      </c>
+      <c r="I68">
+        <v>-0.0740641688170796</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06423514565232691</v>
+        <v>0.03586967212873862</v>
       </c>
       <c r="C69">
-        <v>0.114700382767215</v>
+        <v>0.1195037743449973</v>
       </c>
       <c r="D69">
-        <v>-0.08550686959986799</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04370532259255051</v>
+      </c>
+      <c r="E69">
+        <v>0.00984829223731223</v>
+      </c>
+      <c r="F69">
+        <v>0.0119303961108093</v>
+      </c>
+      <c r="G69">
+        <v>0.01440982653939736</v>
+      </c>
+      <c r="H69">
+        <v>0.04082948565794554</v>
+      </c>
+      <c r="I69">
+        <v>-0.06801052587162826</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2084426024496115</v>
+        <v>0.257122107420774</v>
       </c>
       <c r="C71">
-        <v>-0.1789173100773594</v>
+        <v>-0.1160470614000409</v>
       </c>
       <c r="D71">
-        <v>-0.04325148373579788</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03428914126080122</v>
+      </c>
+      <c r="E71">
+        <v>-0.01165960390452301</v>
+      </c>
+      <c r="F71">
+        <v>-0.027608117376196</v>
+      </c>
+      <c r="G71">
+        <v>-0.05323050734566908</v>
+      </c>
+      <c r="H71">
+        <v>-0.006478264780474734</v>
+      </c>
+      <c r="I71">
+        <v>-0.1661560417663085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1054676791108889</v>
+        <v>0.07066566413762135</v>
       </c>
       <c r="C72">
-        <v>0.0759041692621554</v>
+        <v>0.1177477119151634</v>
       </c>
       <c r="D72">
-        <v>-0.09510887047896485</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06989876948366662</v>
+      </c>
+      <c r="E72">
+        <v>0.09132315730562296</v>
+      </c>
+      <c r="F72">
+        <v>0.008395734177121875</v>
+      </c>
+      <c r="G72">
+        <v>-0.00802776856358565</v>
+      </c>
+      <c r="H72">
+        <v>0.05765617207026683</v>
+      </c>
+      <c r="I72">
+        <v>0.01694663180301355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1871499337800653</v>
+        <v>0.1535942038903756</v>
       </c>
       <c r="C73">
-        <v>0.04986995850359266</v>
+        <v>0.1203253289398952</v>
       </c>
       <c r="D73">
-        <v>-0.1976586326382747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.07045886923411535</v>
+      </c>
+      <c r="E73">
+        <v>0.4439142018836965</v>
+      </c>
+      <c r="F73">
+        <v>0.2307528784530762</v>
+      </c>
+      <c r="G73">
+        <v>0.4244123372245775</v>
+      </c>
+      <c r="H73">
+        <v>-0.01790197914508146</v>
+      </c>
+      <c r="I73">
+        <v>0.05502019197131067</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1000514220212727</v>
+        <v>0.06305605646511214</v>
       </c>
       <c r="C74">
-        <v>0.1100197452050402</v>
+        <v>0.1327584204604114</v>
       </c>
       <c r="D74">
-        <v>0.01573794838003659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03006139796276365</v>
+      </c>
+      <c r="E74">
+        <v>-0.02201835912136572</v>
+      </c>
+      <c r="F74">
+        <v>-0.05670002700105707</v>
+      </c>
+      <c r="G74">
+        <v>-0.003717833158260595</v>
+      </c>
+      <c r="H74">
+        <v>-0.0188019489853917</v>
+      </c>
+      <c r="I74">
+        <v>-0.09544905194859657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2450520359858491</v>
+        <v>0.1631835221172189</v>
       </c>
       <c r="C75">
-        <v>0.1939765561924742</v>
+        <v>0.2537292640533735</v>
       </c>
       <c r="D75">
-        <v>0.09924475766241829</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1264241736741382</v>
+      </c>
+      <c r="E75">
+        <v>-0.08024976515259478</v>
+      </c>
+      <c r="F75">
+        <v>0.03354477124485859</v>
+      </c>
+      <c r="G75">
+        <v>-0.05166851141823373</v>
+      </c>
+      <c r="H75">
+        <v>-0.02190032646396755</v>
+      </c>
+      <c r="I75">
+        <v>-0.08457831807878204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1384692175195193</v>
+        <v>0.0871429233314044</v>
       </c>
       <c r="C76">
-        <v>0.1404864886844963</v>
+        <v>0.1735686826388037</v>
       </c>
       <c r="D76">
-        <v>-0.0179167573313292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0153425287119568</v>
+      </c>
+      <c r="E76">
+        <v>-0.03807491918886887</v>
+      </c>
+      <c r="F76">
+        <v>-0.01367026988525128</v>
+      </c>
+      <c r="G76">
+        <v>-0.05688877842597737</v>
+      </c>
+      <c r="H76">
+        <v>0.01057466349462166</v>
+      </c>
+      <c r="I76">
+        <v>-0.1012509091347962</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02472868492724258</v>
+        <v>0.0345809788100245</v>
       </c>
       <c r="C77">
-        <v>0.08421452052144918</v>
+        <v>0.09635723602827297</v>
       </c>
       <c r="D77">
-        <v>-0.06022699403414686</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.24347012704477</v>
+      </c>
+      <c r="E77">
+        <v>-0.6975570783455196</v>
+      </c>
+      <c r="F77">
+        <v>0.3912634166270769</v>
+      </c>
+      <c r="G77">
+        <v>0.3600287510740016</v>
+      </c>
+      <c r="H77">
+        <v>-0.2070623293408485</v>
+      </c>
+      <c r="I77">
+        <v>-0.1051133463651555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02309956724260236</v>
+        <v>0.02077834861666136</v>
       </c>
       <c r="C78">
-        <v>0.07005158069437308</v>
+        <v>0.08123349038317336</v>
       </c>
       <c r="D78">
-        <v>-0.1606463000230123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1433163268302211</v>
+      </c>
+      <c r="E78">
+        <v>0.044508161392369</v>
+      </c>
+      <c r="F78">
+        <v>-0.03956583137144379</v>
+      </c>
+      <c r="G78">
+        <v>-0.01796286190149898</v>
+      </c>
+      <c r="H78">
+        <v>0.01764600205475949</v>
+      </c>
+      <c r="I78">
+        <v>0.02689550121023996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.07043406202408481</v>
+        <v>0.04376290483783957</v>
       </c>
       <c r="C79">
-        <v>0.1461564463766744</v>
+        <v>0.1653679868864243</v>
       </c>
       <c r="D79">
-        <v>0.08472762764815482</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04047799017264594</v>
+      </c>
+      <c r="E79">
+        <v>-0.1481961967668467</v>
+      </c>
+      <c r="F79">
+        <v>-0.7852291445232205</v>
+      </c>
+      <c r="G79">
+        <v>0.4655300881198878</v>
+      </c>
+      <c r="H79">
+        <v>-0.06164107238985883</v>
+      </c>
+      <c r="I79">
+        <v>0.1447271977459423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009625162892006555</v>
+        <v>0.004225684380656216</v>
       </c>
       <c r="C80">
-        <v>0.05362511541929028</v>
+        <v>0.05355948487888004</v>
       </c>
       <c r="D80">
-        <v>-0.05214944066881744</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0436170451445084</v>
+      </c>
+      <c r="E80">
+        <v>0.0191233726100964</v>
+      </c>
+      <c r="F80">
+        <v>-0.01436155861890301</v>
+      </c>
+      <c r="G80">
+        <v>-0.0631814833650293</v>
+      </c>
+      <c r="H80">
+        <v>0.007961836196675473</v>
+      </c>
+      <c r="I80">
+        <v>-0.03469587572034967</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1230070945191422</v>
+        <v>0.07182688045536444</v>
       </c>
       <c r="C81">
-        <v>0.1404950360099984</v>
+        <v>0.1647768747709988</v>
       </c>
       <c r="D81">
-        <v>0.06430433222371884</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07506354453264491</v>
+      </c>
+      <c r="E81">
+        <v>-0.07463345163282506</v>
+      </c>
+      <c r="F81">
+        <v>-0.04887562040967516</v>
+      </c>
+      <c r="G81">
+        <v>-0.07457303501760358</v>
+      </c>
+      <c r="H81">
+        <v>0.04262188462324147</v>
+      </c>
+      <c r="I81">
+        <v>-0.1238679083112344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2384760632763483</v>
+        <v>0.1345655660250601</v>
       </c>
       <c r="C82">
-        <v>0.3000069193549615</v>
+        <v>0.3179449436849471</v>
       </c>
       <c r="D82">
-        <v>0.2127191928786561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2172758483359301</v>
+      </c>
+      <c r="E82">
+        <v>-0.04412528582652779</v>
+      </c>
+      <c r="F82">
+        <v>0.09846765819630411</v>
+      </c>
+      <c r="G82">
+        <v>-0.08951239223555814</v>
+      </c>
+      <c r="H82">
+        <v>0.06389903368132716</v>
+      </c>
+      <c r="I82">
+        <v>-0.0938901771764924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.008085795129487814</v>
+        <v>-0.003976543557853165</v>
       </c>
       <c r="C83">
-        <v>0.06015078350249575</v>
+        <v>0.05016062521516282</v>
       </c>
       <c r="D83">
-        <v>-0.0254597380191409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.043535520634597</v>
+      </c>
+      <c r="E83">
+        <v>-0.100961905291054</v>
+      </c>
+      <c r="F83">
+        <v>0.01789321255617762</v>
+      </c>
+      <c r="G83">
+        <v>-0.05040286514161469</v>
+      </c>
+      <c r="H83">
+        <v>0.04994676067152413</v>
+      </c>
+      <c r="I83">
+        <v>0.1159725711417962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001294566544350799</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01378771780850297</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03420117412864378</v>
+      </c>
+      <c r="E84">
+        <v>-0.005617494844858449</v>
+      </c>
+      <c r="F84">
+        <v>-0.01733107282246529</v>
+      </c>
+      <c r="G84">
+        <v>-0.03515873040643588</v>
+      </c>
+      <c r="H84">
+        <v>-0.007955361049376426</v>
+      </c>
+      <c r="I84">
+        <v>0.02677318134005411</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1549568365088424</v>
+        <v>0.09507359408903765</v>
       </c>
       <c r="C85">
-        <v>0.1427840213266595</v>
+        <v>0.1867495346724405</v>
       </c>
       <c r="D85">
-        <v>0.05013866195368201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08960402543060164</v>
+      </c>
+      <c r="E85">
+        <v>0.0009118915053407605</v>
+      </c>
+      <c r="F85">
+        <v>-0.07157359749948884</v>
+      </c>
+      <c r="G85">
+        <v>-0.01278709426666381</v>
+      </c>
+      <c r="H85">
+        <v>-0.00905773477192443</v>
+      </c>
+      <c r="I85">
+        <v>-0.07780651567933078</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01084561752035059</v>
+        <v>0.01092463677344718</v>
       </c>
       <c r="C86">
-        <v>0.02636932989923349</v>
+        <v>0.02964005738146156</v>
       </c>
       <c r="D86">
-        <v>-0.08947386471390066</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1045945855724753</v>
+      </c>
+      <c r="E86">
+        <v>-0.04567786391246136</v>
+      </c>
+      <c r="F86">
+        <v>0.01622978720141896</v>
+      </c>
+      <c r="G86">
+        <v>-0.01891793530356865</v>
+      </c>
+      <c r="H86">
+        <v>0.005559001587017391</v>
+      </c>
+      <c r="I86">
+        <v>-0.1087876519101719</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02056254522140084</v>
+        <v>0.02262400217446539</v>
       </c>
       <c r="C87">
-        <v>0.02156073367132126</v>
+        <v>0.04438801778141339</v>
       </c>
       <c r="D87">
-        <v>-0.1255299471585017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1484393642690778</v>
+      </c>
+      <c r="E87">
+        <v>-0.01801482463346369</v>
+      </c>
+      <c r="F87">
+        <v>-0.03612837036574503</v>
+      </c>
+      <c r="G87">
+        <v>-0.06059477311130238</v>
+      </c>
+      <c r="H87">
+        <v>0.0154784334533225</v>
+      </c>
+      <c r="I87">
+        <v>0.08708705094213827</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05874308047537705</v>
+        <v>0.04036341517265127</v>
       </c>
       <c r="C88">
-        <v>0.04453351514960251</v>
+        <v>0.06189850760939933</v>
       </c>
       <c r="D88">
-        <v>-0.04446546656582265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01252162763789047</v>
+      </c>
+      <c r="E88">
+        <v>0.02001809624894731</v>
+      </c>
+      <c r="F88">
+        <v>-0.02534351614953034</v>
+      </c>
+      <c r="G88">
+        <v>0.005911449984068032</v>
+      </c>
+      <c r="H88">
+        <v>0.02347667017069058</v>
+      </c>
+      <c r="I88">
+        <v>-0.03978637085914079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3204025577939205</v>
+        <v>0.390613977695947</v>
       </c>
       <c r="C89">
-        <v>-0.3315018765105203</v>
+        <v>-0.2157181285771655</v>
       </c>
       <c r="D89">
-        <v>-0.006150850765387838</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01603172201902157</v>
+      </c>
+      <c r="E89">
+        <v>-0.05687072101666429</v>
+      </c>
+      <c r="F89">
+        <v>-0.0534555980884734</v>
+      </c>
+      <c r="G89">
+        <v>-0.1077762730326035</v>
+      </c>
+      <c r="H89">
+        <v>0.149409455330545</v>
+      </c>
+      <c r="I89">
+        <v>0.4067384438154332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2575243102751155</v>
+        <v>0.3072560676636367</v>
       </c>
       <c r="C90">
-        <v>-0.2443388041598854</v>
+        <v>-0.1488245966437414</v>
       </c>
       <c r="D90">
-        <v>-0.03259142502681203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03695612821419859</v>
+      </c>
+      <c r="E90">
+        <v>-0.01011413214350018</v>
+      </c>
+      <c r="F90">
+        <v>0.017359419450113</v>
+      </c>
+      <c r="G90">
+        <v>-0.04300968300037754</v>
+      </c>
+      <c r="H90">
+        <v>-0.03600426956338164</v>
+      </c>
+      <c r="I90">
+        <v>-0.06687434652247266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1567074793435576</v>
+        <v>0.09557019784039072</v>
       </c>
       <c r="C91">
-        <v>0.1845004081782152</v>
+        <v>0.2048196106730205</v>
       </c>
       <c r="D91">
-        <v>0.1034618990072558</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1079982796087592</v>
+      </c>
+      <c r="E91">
+        <v>-0.08067189479363319</v>
+      </c>
+      <c r="F91">
+        <v>-0.07772307745733692</v>
+      </c>
+      <c r="G91">
+        <v>-0.01870898755924917</v>
+      </c>
+      <c r="H91">
+        <v>-0.01156715767088826</v>
+      </c>
+      <c r="I91">
+        <v>-0.118676964712346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.227009107807046</v>
+        <v>0.3079164366190668</v>
       </c>
       <c r="C92">
-        <v>-0.2534493090879171</v>
+        <v>-0.1849259107067737</v>
       </c>
       <c r="D92">
-        <v>0.0255498632385674</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.008871163164901004</v>
+      </c>
+      <c r="E92">
+        <v>-0.0826598387247641</v>
+      </c>
+      <c r="F92">
+        <v>-0.02762923120559392</v>
+      </c>
+      <c r="G92">
+        <v>-0.02476831671804227</v>
+      </c>
+      <c r="H92">
+        <v>0.009409624435464515</v>
+      </c>
+      <c r="I92">
+        <v>0.02780603564802924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2822860986610767</v>
+        <v>0.3248728417930119</v>
       </c>
       <c r="C93">
-        <v>-0.251928722706955</v>
+        <v>-0.1533469014770831</v>
       </c>
       <c r="D93">
-        <v>-0.02415034048452892</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.00557437943193185</v>
+      </c>
+      <c r="E93">
+        <v>0.03528002657929512</v>
+      </c>
+      <c r="F93">
+        <v>-0.01646301969667627</v>
+      </c>
+      <c r="G93">
+        <v>0.03164387143994839</v>
+      </c>
+      <c r="H93">
+        <v>-0.01504479923307478</v>
+      </c>
+      <c r="I93">
+        <v>-0.1289876552043319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3043326974484031</v>
+        <v>0.1934182725020459</v>
       </c>
       <c r="C94">
-        <v>0.2696894298578416</v>
+        <v>0.3419937562138752</v>
       </c>
       <c r="D94">
-        <v>0.3666381417541415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3595720169489887</v>
+      </c>
+      <c r="E94">
+        <v>-0.05512655665086547</v>
+      </c>
+      <c r="F94">
+        <v>0.09816684194407523</v>
+      </c>
+      <c r="G94">
+        <v>-0.2788087999828684</v>
+      </c>
+      <c r="H94">
+        <v>-0.1397918561303427</v>
+      </c>
+      <c r="I94">
+        <v>0.4171407196362456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02915699598071271</v>
+        <v>0.02859604601752133</v>
       </c>
       <c r="C95">
-        <v>0.03936802978928414</v>
+        <v>0.06129340691675385</v>
       </c>
       <c r="D95">
-        <v>-0.08727729563137827</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1185093435070944</v>
+      </c>
+      <c r="E95">
+        <v>-0.2109489362279464</v>
+      </c>
+      <c r="F95">
+        <v>0.1480039895847438</v>
+      </c>
+      <c r="G95">
+        <v>0.1261011620779235</v>
+      </c>
+      <c r="H95">
+        <v>0.4606066458627875</v>
+      </c>
+      <c r="I95">
+        <v>0.4757030419832946</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0004395109072252619</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.000211518335378671</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0005935859868010367</v>
+      </c>
+      <c r="E97">
+        <v>0.0006473314618417002</v>
+      </c>
+      <c r="F97">
+        <v>0.001636217466987213</v>
+      </c>
+      <c r="G97">
+        <v>0.001404205673347265</v>
+      </c>
+      <c r="H97">
+        <v>0.001685213129091863</v>
+      </c>
+      <c r="I97">
+        <v>0.000284027090619151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1532841348503261</v>
+        <v>0.1314258763586663</v>
       </c>
       <c r="C98">
-        <v>0.07154634828236132</v>
+        <v>0.1247063431717194</v>
       </c>
       <c r="D98">
-        <v>-0.1278107486385009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06544900572513977</v>
+      </c>
+      <c r="E98">
+        <v>0.2895856680305063</v>
+      </c>
+      <c r="F98">
+        <v>0.1445309158100417</v>
+      </c>
+      <c r="G98">
+        <v>0.2500341272101619</v>
+      </c>
+      <c r="H98">
+        <v>-0.05849475138915114</v>
+      </c>
+      <c r="I98">
+        <v>0.01232492086382259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002156893996583474</v>
+        <v>0.0008249819447310122</v>
       </c>
       <c r="C101">
-        <v>0.02045848075513772</v>
+        <v>0.02686737917642768</v>
       </c>
       <c r="D101">
-        <v>-0.1013308312044166</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1014564912400605</v>
+      </c>
+      <c r="E101">
+        <v>0.03123323096059756</v>
+      </c>
+      <c r="F101">
+        <v>-0.02917183838784047</v>
+      </c>
+      <c r="G101">
+        <v>-0.05275469520880312</v>
+      </c>
+      <c r="H101">
+        <v>0.0982478708092801</v>
+      </c>
+      <c r="I101">
+        <v>-0.01847054651626635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1097811387950584</v>
+        <v>0.05756841819835537</v>
       </c>
       <c r="C102">
-        <v>0.1519803344416861</v>
+        <v>0.1516989741839369</v>
       </c>
       <c r="D102">
-        <v>0.06954185188880574</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.08752187561100523</v>
+      </c>
+      <c r="E102">
+        <v>-0.02952192640778894</v>
+      </c>
+      <c r="F102">
+        <v>0.06273325896649787</v>
+      </c>
+      <c r="G102">
+        <v>4.847433517396119e-05</v>
+      </c>
+      <c r="H102">
+        <v>0.05556573127467731</v>
+      </c>
+      <c r="I102">
+        <v>-0.02866251207983157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
